--- a/excel/orderstatus_temp.xlsx
+++ b/excel/orderstatus_temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,17 +11,13 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>2017（RMB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Increase Rate                    增长率</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -32,46 +28,51 @@
     <t xml:space="preserve"> Total Order Value                                         订单金额总计</t>
   </si>
   <si>
-    <t>&lt;%~_data_.zdje%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~_data_.ddjezj%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~_data_.fyje%&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>November Order Status Comparison</t>
-  </si>
-  <si>
-    <t>11月份订单状况比较</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Comparison Item</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>2016(RMB)</t>
+    <t>1月份订单状况比较</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>January Order Status Comparison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipment Value Till January 31th
+   至1月31日为 止的发运金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outstanding Value Till January 31th
+至1月31日为止的在单金额</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017(RMB)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Order Received in 2017(till November 30th)
- 2017年订单金额（至11月30日）               </t>
+    <t>2018（RMB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Received in 2018(till January 31th)
+ 2018年订单金额（至1月31日）               </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Shipment Value Till November 30th
-   至11月30日为 止的发运金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outstanding Value Till November 30th
-至11月30日为止的在单金额</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>&lt;%~(_data_.qnsbje-_data_.qnfhje)%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~_data_.jnfhje%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~_data_.jnsbje%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -361,7 +362,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="0,0_x000d_&#10;NA_x000d_&#10; 2 10" xfId="1"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_ 2 10" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="千位分隔 2 2" xfId="3"/>
@@ -659,7 +660,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -676,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -684,7 +685,7 @@
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -692,27 +693,27 @@
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>511404251.35158998</v>
+        <v>630994823</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="e">
         <f>(C4-B4)/B4</f>
@@ -721,15 +722,14 @@
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8">
         <f>B6-B4</f>
-        <v>769759182.18637013</v>
-      </c>
-      <c r="C5" s="7" t="e">
-        <f>C6-C4</f>
-        <v>#VALUE!</v>
+        <v>51725020</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="e">
         <f>(C5-B5)/B5</f>
@@ -738,13 +738,14 @@
     </row>
     <row r="6" spans="1:6" ht="45" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6">
-        <v>1281163433.5379601</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
+        <v>682719843</v>
+      </c>
+      <c r="C6" s="7" t="e">
+        <f>C4+C5</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D6" s="5" t="e">
         <f>(C6-B6)/B6</f>
@@ -753,13 +754,13 @@
     </row>
     <row r="7" spans="1:6" ht="45" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>17948218</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="6">
-        <v>632527518.32437003</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="D7" s="5" t="e">
         <f>(C7-B7)/B7</f>
@@ -775,11 +776,11 @@
     </row>
     <row r="8" spans="1:6" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="11">
         <f>B6-B7</f>
-        <v>648635915.21359003</v>
+        <v>664771625</v>
       </c>
       <c r="C8" s="12" t="e">
         <f>C6-C7</f>
@@ -800,7 +801,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4:D8 C5 C8" evalError="1"/>
+    <ignoredError sqref="D4:D8 C8 C6" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
